--- a/biology/Botanique/Bois_des_Moutiers/Bois_des_Moutiers.xlsx
+++ b/biology/Botanique/Bois_des_Moutiers/Bois_des_Moutiers.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le bois des Moutiers se situe en France sur la commune de Varengeville-sur-Mer, dans le département de la Seine-Maritime en région Normandie.
@@ -488,7 +500,7 @@
 Le bois des Moutiers est composé de trois parties : des jardins aménagés de style anglais, un vaste parc qui donne sur la mer et un manoir, habité par la famille[Laquelle ?] jusqu'à la cession de la propriété en 2019.
 Le domaine est labellisé  Jardin remarquable initialement en 2004.
 Le dernier descendant de Guillaume Mallet à avoir occupé la propriété est son arrière-petit-fils, Antoine Bouchayer-Mallet, architecte DPLG, artiste et gestionnaire du site, qui s'est efforcé de le sauvegarder pour les générations futures.
-Face aux difficultés croissantes pour maintenir le domaine dans le patrimoine de la famille, la propriété est proposée à la vente dès 2011[1]. Elle est achetée en mars 2019 par Jérôme Seydoux. Pour l'un des membres de la famille, Robert Mallet, « C'est un grand bonheur pour nous, car l'avenir du site est assuré. Il y avait toujours plus d'héritiers, ce qui, avec le temps, risquait de poser des problèmes de succession »[2].
+Face aux difficultés croissantes pour maintenir le domaine dans le patrimoine de la famille, la propriété est proposée à la vente dès 2011. Elle est achetée en mars 2019 par Jérôme Seydoux. Pour l'un des membres de la famille, Robert Mallet, « C'est un grand bonheur pour nous, car l'avenir du site est assuré. Il y avait toujours plus d'héritiers, ce qui, avec le temps, risquait de poser des problèmes de succession ».
 </t>
         </is>
       </c>
@@ -519,8 +531,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">L'ambition de Guillaume Mallet
-En 1898, Guillaume Mallet et Adelaïde Grunelius deviennent propriétaires d'une vaste vallée donnant sur la mer. Il acquiert le site encore à l'état sauvage et, pendant plus de quarante ans, il s'attache à créer un grand parc.
+          <t>L'ambition de Guillaume Mallet</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1898, Guillaume Mallet et Adelaïde Grunelius deviennent propriétaires d'une vaste vallée donnant sur la mer. Il acquiert le site encore à l'état sauvage et, pendant plus de quarante ans, il s'attache à créer un grand parc.
 Il confie l'aménagement des jardins à la paysagiste anglaise Gertrude Jekyll et la construction de la demeure à un jeune architecte britannique de 29 ans, Edwin Lutyens auquel on, doit plus tard, notamment, le Rashtrapati Bhavan et plans de la ville de New Delhi. Les deux artistes vont travailler ensemble pour élaborer une seule et même œuvre.
 Le bois des Moutiers est aussi un instrument au service d’une cause, celle des théosophes dont les Mallet étaient membres :
 Former un noyau de la fraternité universelle,
@@ -530,13 +547,48 @@
 Les Mallet étaient amis du philosophe indien Jiddu Krishnamurti considéré par les théosophes comme le futur « enseignant du monde ». Dans le même cercle théosophique, ils étaient également proches d'Émilie et de Mary Lutyens, épouse et fille de Sir Edwin Lutyens.
 Rukmini Devi Arundale, amie de Gandhi, fréquenta également le bois des Moutiers.
 Alliant l’âme, l’esprit et la forme, le bois des Moutiers a été créé comme un tout cohérent. Les notions d’appartenance religieuse, ethnique, sociale sont ici transcendées. Au travers des choix subtils des couleurs, des textures et des formes émergent une partition architecturale et paysagère d’une sensibilité inouïe. La présence du nombre d'or, de la géométrie sacrée, des chiffres 2, 3, 7 (nombre)… utilisés comme une trame, un canevas ne laisse que peu de places au hasard…
-Aménagement du domaine
-Le manoir est construit selon les plans d'Edwin Lutyens dans le style Arts &amp; Crafts. Ce style se caractérise par la volonté de redonner aux matériaux leur primauté, par un désir de créer des œuvres simples et uniques. William Morris, qui était l'un des initiateurs de ce mouvement, disait : « J'ai essayé de faire de chacun de mes ouvriers un artiste, et quand je dis un artiste, je veux dire un Homme[3]. » 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Bois_des_Moutiers</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bois_des_Moutiers</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Histoire</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Aménagement du domaine</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le manoir est construit selon les plans d'Edwin Lutyens dans le style Arts &amp; Crafts. Ce style se caractérise par la volonté de redonner aux matériaux leur primauté, par un désir de créer des œuvres simples et uniques. William Morris, qui était l'un des initiateurs de ce mouvement, disait : « J'ai essayé de faire de chacun de mes ouvriers un artiste, et quand je dis un artiste, je veux dire un Homme. » 
 La maison est conçue comme une œuvre à part entière où chaque détail de ferronnerie ou d’ébénisterie a fait l'objet d'attention lors de sa réalisation.
-La maison et les jardins font l'objet d’un classement au titre des monuments historiques depuis le 11 décembre 2009[4].
+La maison et les jardins font l'objet d’un classement au titre des monuments historiques depuis le 11 décembre 2009.
 C’est dans le village de Varengeville-sur-Mer, près de Dieppe, qu’ils décident de l’implanter.
 Ancré en équilibre aux bords des falaises blanches de la Côte d’Albâtre, ce lieu compte parmi ses visiteurs réguliers un grand nombre de célébrités telles que : Joseph Mallord William Turner, Claude Monet, Georges Braque, Joan Miró, Pablo Ruiz Picasso, Fernand Léger, Auguste Rodin, Claude Debussy, Maurice Ravel, Eric Satie, Albert Roussel, Jacques Prévert, André Breton, Jean Cocteau, André Gide, Virginia Woolf et Jean Francis Auburtin.
-Parmi cette liste impressionnante d'artistes, certains étaient particulièrement proches de G. Mallet : Marcel Proust[5], Jacques-Émile Blanche[6] et Apel·les Fenosa[7].
+Parmi cette liste impressionnante d'artistes, certains étaient particulièrement proches de G. Mallet : Marcel Proust, Jacques-Émile Blanche et Apel·les Fenosa.
 Les sept niveaux de jardins réalisés par Gertrude Jekyll sont des espaces clos entourant la demeure. Lors de leur création, Gertrude Jekyll travailla à une harmonisation des formes, des couleurs et des parfums afin de créer une atmosphère différente dans chacune des chambres de verdure.
 À l’arrière de la maison, le parc descend vers la mer dans un vallon argileux. La nature acide du sol est propice à l’introduction de nombreuses espèces rares comme les rhododendrons de l’Himalaya, des azalées de Chine ou des eucryphias du Chili.
 La conception du parc est le fruit de Guillaume et d’Adélaïde. Il s'agit d'un exemple fondateur de ce nouvel art des jardins né dans le Surrey en Angleterre à la fin du siècle dernier. Conçu comme un tableau vivant aux effets de broderies et de tapisseries, les influences de Turner, et des artistes du préraphaélisme, Dante Gabriel Rossetti, Edward Burne-Jones(l'Adoration-des-mages commandé pour le bois des Moutiers)-, Arthur Rackham, Robert Anning Bell et de Aubrey Beardsley sont partout présentes. Le but de ces artistes était de s’adresser à toutes les facultés de l’Homme au travers de son esprit, de son intelligence, de sa mémoire, de sa conscience, de son cœur… et non pas seulement à ce que l’œil voit[réf. nécessaire].
@@ -545,41 +597,78 @@
 Le jeune Indien en question de 18 ans était Jiddu Krishnamurti.
 Les compositions naturelles soignent les effets de masses, de contrastes, le choix des teintes, des pigments parfois aux tons pastel sont en parfaite harmonie avec la mer toute proche et ses couleurs laiteuses. Tout est dialogue, poésie, rencontres extraordinaires, la lumière sans cesse changeante est utilisée comme liant, insufflant la vie par petite touches ou grands effets. De multiples essences provenant du monde entier y sont présentes : les cèdres de l’Atlas, les rhododendrons de l'Himalaya, les azalées de Chine et de Turquie, les eucryphias du Chili, les érables du Japon, …
 Selon Mary Mallet, « c’est le jardin même qui nous inspire, il n’est jamais statique, il vit, meurt et se transforme sous nos yeux. Il ne nous appartient pas, c’est plutôt nous qui lui appartenons[réf. nécessaire] ».
-Ouverture au public
-En 1946, Guillaume Mallet et son épouse décèdent. Le bois des Moutiers a subi de nombreux dommages pendant la guerre. La famille se mobilise pour remettre le domaine en état. En 1970, la famille Mallet ouvre les portes de leur propriété au public. Le bois des Moutiers est le premier jardin privé de France accessible à la visite. Il est très vite considéré comme un des plus beaux jardins de France et se voit classé monument historique en 1975 avant d'obtenir le label  Jardin remarquable en 2004.
-Depuis son ouverture, près de deux millions de personnes ont visité le parc [1].
-Le nouveau propriétaire, Jérôme Seydoux, entreprend des travaux dans le manoir et dans le parc. Les visites du public sont suspendues depuis le 15 novembre 2019[8].
 </t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>Bois_des_Moutiers</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Bois_des_Moutiers</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Histoire</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Ouverture au public</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1946, Guillaume Mallet et son épouse décèdent. Le bois des Moutiers a subi de nombreux dommages pendant la guerre. La famille se mobilise pour remettre le domaine en état. En 1970, la famille Mallet ouvre les portes de leur propriété au public. Le bois des Moutiers est le premier jardin privé de France accessible à la visite. Il est très vite considéré comme un des plus beaux jardins de France et se voit classé monument historique en 1975 avant d'obtenir le label  Jardin remarquable en 2004.
+Depuis son ouverture, près de deux millions de personnes ont visité le parc .
+Le nouveau propriétaire, Jérôme Seydoux, entreprend des travaux dans le manoir et dans le parc. Les visites du public sont suspendues depuis le 15 novembre 2019.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Bois_des_Moutiers</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bois_des_Moutiers</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
         <is>
           <t>Protection</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Après une inscription au titre des monuments historiques en 1975, l'ensemble du domaine fait l'objet d'un classement au titre des monuments historiques depuis le 11 décembre 2009[4].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Après une inscription au titre des monuments historiques en 1975, l'ensemble du domaine fait l'objet d'un classement au titre des monuments historiques depuis le 11 décembre 2009.
 			Rhododendron.
 			Le bois des Moutiers débouche sur la mer.
 			Un des magnifiques magnolias visibles au bois des Moutiers.
